--- a/Mock_Data/Projects.xlsx
+++ b/Mock_Data/Projects.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/ΕΜΠ/ΡΟΗ Λ/ΒΑΣΕΙΣ ΔΕΔΟΜΕΝΩΝ/ΕΡΓΑΣΙΑ/DB_Project_ELIDEK_2022/Mock_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA917A2-22DC-4474-8368-50A2D1D00693}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A0E55F-DC3F-4A0E-BF3D-03F53D11FA53}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2940" windowWidth="29625" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1425" windowWidth="33645" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$A$62</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>project_id</t>
   </si>
@@ -58,658 +61,307 @@
     <t>In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante. Nulla justo.</t>
   </si>
   <si>
-    <t>09/03/2020</t>
-  </si>
-  <si>
-    <t>21/07/2023</t>
-  </si>
-  <si>
     <t>Veribet</t>
   </si>
   <si>
     <t>In hac habitasse platea dictumst. Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem. Integer tincidunt ante vel ipsum. Praesent blandit lacinia erat.</t>
   </si>
   <si>
-    <t>11/07/2021</t>
-  </si>
-  <si>
-    <t>27/11/2023</t>
-  </si>
-  <si>
     <t>Lotstring</t>
   </si>
   <si>
     <t>Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros.</t>
   </si>
   <si>
-    <t>24/05/2020</t>
-  </si>
-  <si>
-    <t>14/04/2024</t>
-  </si>
-  <si>
     <t>Lotlux</t>
   </si>
   <si>
     <t>Vivamus tortor. Duis mattis egestas metus. Aenean fermentum. Donec ut mauris eget massa tempor convallis.</t>
   </si>
   <si>
-    <t>28/03/2021</t>
-  </si>
-  <si>
-    <t>12/08/2022</t>
-  </si>
-  <si>
     <t>Tempsoft</t>
   </si>
   <si>
     <t>Curabitur at ipsum ac tellus semper interdum. Mauris ullamcorper purus sit amet nulla. Quisque arcu libero, rutrum ac, lobortis vel, dapibus at, diam. Nam tristique tortor eu pede.</t>
   </si>
   <si>
-    <t>13/04/2020</t>
-  </si>
-  <si>
-    <t>24/07/2022</t>
-  </si>
-  <si>
     <t>Stim</t>
   </si>
   <si>
     <t>Duis consequat dui nec nisi volutpat eleifend.</t>
   </si>
   <si>
-    <t>19/03/2020</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
     <t>Mat Lam Tam</t>
   </si>
   <si>
     <t>Suspendisse accumsan tortor quis turpis. Sed ante. Vivamus tortor. Duis mattis egestas metus.</t>
   </si>
   <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
-    <t>11/03/2024</t>
-  </si>
-  <si>
     <t>Toughjoyfax</t>
   </si>
   <si>
     <t>Maecenas tincidunt lacus at velit. Vivamus vel nulla eget eros elementum pellentesque. Quisque porta volutpat erat.</t>
   </si>
   <si>
-    <t>14/08/2019</t>
-  </si>
-  <si>
-    <t>07/04/2023</t>
-  </si>
-  <si>
     <t>Stringtough</t>
   </si>
   <si>
     <t>Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus. Phasellus in felis.</t>
   </si>
   <si>
-    <t>14/11/2019</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
     <t>Duobam</t>
   </si>
   <si>
     <t>Sed ante. Vivamus tortor. Duis mattis egestas metus. Aenean fermentum.</t>
   </si>
   <si>
-    <t>08/12/2019</t>
-  </si>
-  <si>
-    <t>03/07/2024</t>
-  </si>
-  <si>
     <t>Viva</t>
   </si>
   <si>
     <t>Nullam porttitor lacus at turpis. Donec posuere metus vitae ipsum.</t>
   </si>
   <si>
-    <t>18/05/2020</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
     <t>Span</t>
   </si>
   <si>
     <t>In eleifend quam a odio.</t>
   </si>
   <si>
-    <t>26/07/2021</t>
-  </si>
-  <si>
-    <t>13/11/2022</t>
-  </si>
-  <si>
     <t>Tampflex</t>
   </si>
   <si>
     <t>Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero. Nullam sit amet turpis elementum ligula vehicula consequat. Morbi a ipsum.</t>
   </si>
   <si>
-    <t>22/08/2021</t>
-  </si>
-  <si>
-    <t>01/05/2024</t>
-  </si>
-  <si>
     <t>Bamity</t>
   </si>
   <si>
     <t>Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl. Aenean lectus. Pellentesque eget nunc.</t>
   </si>
   <si>
-    <t>25/11/2021</t>
-  </si>
-  <si>
-    <t>23/03/2025</t>
-  </si>
-  <si>
     <t>Alphazap</t>
   </si>
   <si>
     <t>Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla. Sed vel enim sit amet nunc viverra dapibus.</t>
   </si>
   <si>
-    <t>05/09/2021</t>
-  </si>
-  <si>
-    <t>02/02/2023</t>
-  </si>
-  <si>
     <t>Otcom</t>
   </si>
   <si>
     <t>Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est.</t>
   </si>
   <si>
-    <t>12/02/2020</t>
-  </si>
-  <si>
-    <t>17/03/2023</t>
-  </si>
-  <si>
     <t>Matsoft</t>
   </si>
   <si>
     <t>Suspendisse potenti. Nullam porttitor lacus at turpis.</t>
   </si>
   <si>
-    <t>08/10/2019</t>
-  </si>
-  <si>
-    <t>26/05/2024</t>
-  </si>
-  <si>
     <t>Y-find</t>
   </si>
   <si>
     <t>Nulla nisl. Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa.</t>
   </si>
   <si>
-    <t>15/08/2021</t>
-  </si>
-  <si>
-    <t>27/02/2024</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
     <t>Vivamus in felis eu sapien cursus vestibulum.</t>
   </si>
   <si>
-    <t>14/11/2021</t>
-  </si>
-  <si>
-    <t>20/04/2024</t>
-  </si>
-  <si>
     <t>Treeflex</t>
   </si>
   <si>
     <t>Pellentesque eget nunc.</t>
   </si>
   <si>
-    <t>20/09/2020</t>
-  </si>
-  <si>
-    <t>28/11/2024</t>
-  </si>
-  <si>
     <t>Praesent blandit. Nam nulla.</t>
   </si>
   <si>
-    <t>23/01/2021</t>
-  </si>
-  <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
     <t>Tin</t>
   </si>
   <si>
     <t>Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy.</t>
   </si>
   <si>
-    <t>07/06/2021</t>
-  </si>
-  <si>
-    <t>18/08/2023</t>
-  </si>
-  <si>
     <t>It</t>
   </si>
   <si>
     <t>Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem. Fusce consequat. Nulla nisl.</t>
   </si>
   <si>
-    <t>18/05/2022</t>
-  </si>
-  <si>
-    <t>28/04/2024</t>
-  </si>
-  <si>
     <t>Aliquam sit amet diam in magna bibendum imperdiet. Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis.</t>
   </si>
   <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
     <t>Etiam vel augue. Vestibulum rutrum rutrum neque.</t>
   </si>
   <si>
-    <t>09/01/2021</t>
-  </si>
-  <si>
-    <t>10/07/2023</t>
-  </si>
-  <si>
     <t>Greenlam</t>
   </si>
   <si>
     <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem. Fusce consequat.</t>
   </si>
   <si>
-    <t>10/06/2021</t>
-  </si>
-  <si>
-    <t>15/02/2024</t>
-  </si>
-  <si>
     <t>Flowdesk</t>
   </si>
   <si>
     <t>Nulla suscipit ligula in lacus.</t>
   </si>
   <si>
-    <t>21/01/2021</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
-  </si>
-  <si>
     <t>Ventosanzap</t>
   </si>
   <si>
     <t>Nam congue, risus semper porta volutpat, quam pede lobortis ligula, sit amet eleifend pede libero quis orci. Nullam molestie nibh in lectus. Pellentesque at nulla. Suspendisse potenti.</t>
   </si>
   <si>
-    <t>09/12/2021</t>
-  </si>
-  <si>
-    <t>03/12/2024</t>
-  </si>
-  <si>
     <t>Trippledex</t>
   </si>
   <si>
     <t>Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Mauris viverra diam vitae quam. Suspendisse potenti.</t>
   </si>
   <si>
-    <t>15/01/2021</t>
-  </si>
-  <si>
-    <t>28/12/2023</t>
-  </si>
-  <si>
     <t>Bigtax</t>
   </si>
   <si>
     <t>Vestibulum rutrum rutrum neque. Aenean auctor gravida sem. Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo.</t>
   </si>
   <si>
-    <t>27/08/2019</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
     <t>Fixflex</t>
   </si>
   <si>
-    <t>13/03/2021</t>
-  </si>
-  <si>
-    <t>22/06/2022</t>
-  </si>
-  <si>
     <t>Proin eu mi. Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem.</t>
   </si>
   <si>
-    <t>05/01/2021</t>
-  </si>
-  <si>
-    <t>25/07/2022</t>
-  </si>
-  <si>
     <t>Kanlam</t>
   </si>
   <si>
     <t>Vivamus vel nulla eget eros elementum pellentesque. Quisque porta volutpat erat. Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus.</t>
   </si>
   <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>06/03/2025</t>
-  </si>
-  <si>
     <t>Aliquam non mauris. Morbi non lectus. Aliquam sit amet diam in magna bibendum imperdiet.</t>
   </si>
   <si>
-    <t>09/03/2022</t>
-  </si>
-  <si>
-    <t>03/06/2024</t>
-  </si>
-  <si>
     <t>Pellentesque ultrices mattis odio.</t>
   </si>
   <si>
-    <t>30/10/2019</t>
-  </si>
-  <si>
-    <t>05/11/2022</t>
-  </si>
-  <si>
     <t>Latlux</t>
   </si>
   <si>
-    <t>30/12/2021</t>
-  </si>
-  <si>
-    <t>07/09/2022</t>
-  </si>
-  <si>
     <t>Wrapsafe</t>
   </si>
   <si>
     <t>Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue.</t>
   </si>
   <si>
-    <t>08/11/2020</t>
-  </si>
-  <si>
-    <t>05/02/2023</t>
-  </si>
-  <si>
     <t>Stronghold</t>
   </si>
   <si>
     <t>Maecenas pulvinar lobortis est. Phasellus sit amet erat.</t>
   </si>
   <si>
-    <t>20/02/2022</t>
-  </si>
-  <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
     <t>Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede. Morbi porttitor lorem id ligula.</t>
   </si>
   <si>
-    <t>31/01/2021</t>
-  </si>
-  <si>
-    <t>05/05/2025</t>
-  </si>
-  <si>
     <t>In hac habitasse platea dictumst. Etiam faucibus cursus urna.</t>
   </si>
   <si>
-    <t>02/05/2021</t>
-  </si>
-  <si>
     <t>Pannier</t>
   </si>
   <si>
     <t>Morbi vel lectus in quam fringilla rhoncus. Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis.</t>
   </si>
   <si>
-    <t>15/02/2021</t>
-  </si>
-  <si>
-    <t>28/12/2022</t>
-  </si>
-  <si>
     <t>Solarbreeze</t>
   </si>
   <si>
     <t>Curabitur at ipsum ac tellus semper interdum.</t>
   </si>
   <si>
-    <t>14/12/2020</t>
-  </si>
-  <si>
-    <t>19/01/2024</t>
-  </si>
-  <si>
     <t>Voltsillam</t>
   </si>
   <si>
     <t>Maecenas ut massa quis augue luctus tincidunt.</t>
   </si>
   <si>
-    <t>05/04/2020</t>
-  </si>
-  <si>
-    <t>23/07/2022</t>
-  </si>
-  <si>
     <t>Morbi non quam nec dui luctus rutrum.</t>
   </si>
   <si>
-    <t>11/09/2019</t>
-  </si>
-  <si>
-    <t>20/10/2024</t>
-  </si>
-  <si>
     <t>Quo Lux</t>
   </si>
   <si>
     <t>Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla. Sed vel enim sit amet nunc viverra dapibus. Nulla suscipit ligula in lacus.</t>
   </si>
   <si>
-    <t>16/12/2020</t>
-  </si>
-  <si>
-    <t>03/01/2025</t>
-  </si>
-  <si>
     <t>Fintone</t>
   </si>
   <si>
     <t>Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa.</t>
   </si>
   <si>
-    <t>02/11/2021</t>
-  </si>
-  <si>
-    <t>17/07/2022</t>
-  </si>
-  <si>
     <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem.</t>
   </si>
   <si>
-    <t>23/06/2021</t>
-  </si>
-  <si>
-    <t>17/12/2024</t>
-  </si>
-  <si>
     <t>Regrant</t>
   </si>
   <si>
     <t>Praesent lectus. Vestibulum quam sapien, varius ut, blandit non, interdum in, ante. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Duis faucibus accumsan odio. Curabitur convallis.</t>
   </si>
   <si>
-    <t>05/01/2022</t>
-  </si>
-  <si>
-    <t>21/02/2025</t>
-  </si>
-  <si>
     <t>Nam dui.</t>
   </si>
   <si>
-    <t>26/04/2020</t>
-  </si>
-  <si>
-    <t>12/03/2024</t>
-  </si>
-  <si>
     <t>Home Ing</t>
   </si>
   <si>
     <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est.</t>
   </si>
   <si>
-    <t>08/05/2020</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
     <t>Tresom</t>
   </si>
   <si>
     <t>Sed ante. Vivamus tortor.</t>
   </si>
   <si>
-    <t>23/02/2021</t>
-  </si>
-  <si>
-    <t>27/01/2024</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
     <t>Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem. Sed sagittis.</t>
   </si>
   <si>
-    <t>23/01/2022</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
-  </si>
-  <si>
     <t>Gembucket</t>
   </si>
   <si>
     <t>Nulla ut erat id mauris vulputate elementum. Nullam varius. Nulla facilisi.</t>
   </si>
   <si>
-    <t>30/03/2021</t>
-  </si>
-  <si>
-    <t>27/03/2025</t>
-  </si>
-  <si>
     <t>Nulla tempus. Vivamus in felis eu sapien cursus vestibulum. Proin eu mi.</t>
   </si>
   <si>
-    <t>23/08/2022</t>
-  </si>
-  <si>
     <t>Zoolab</t>
   </si>
   <si>
     <t>Nulla tempus.</t>
   </si>
   <si>
-    <t>11/12/2019</t>
-  </si>
-  <si>
-    <t>06/09/2022</t>
-  </si>
-  <si>
     <t>Nam dui. Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis. Ut at dolor quis odio consequat varius.</t>
   </si>
   <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
     <t>Cardify</t>
   </si>
   <si>
     <t>Morbi non quam nec dui luctus rutrum. Nulla tellus. In sagittis dui vel nisl.</t>
   </si>
   <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
-    <t>08/09/2024</t>
-  </si>
-  <si>
     <t>Aliquam non mauris.</t>
   </si>
   <si>
-    <t>07/12/2020</t>
-  </si>
-  <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
     <t>Bitchip</t>
   </si>
   <si>
     <t>Phasellus in felis. Donec semper sapien a libero. Nam dui.</t>
   </si>
   <si>
-    <t>25/10/2019</t>
-  </si>
-  <si>
-    <t>19/04/2024</t>
-  </si>
-  <si>
     <t>Donec vitae nisi. Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla. Sed vel enim sit amet nunc viverra dapibus.</t>
-  </si>
-  <si>
-    <t>31/10/2020</t>
-  </si>
-  <si>
-    <t>03/04/2025</t>
   </si>
   <si>
     <t>duration</t>
@@ -731,6 +383,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,12 +425,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,16 +757,16 @@
   <sheetPr codeName="Φύλλο1"/>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="154.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="154.875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
@@ -1122,29 +784,29 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1157,17 +819,16 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="4">
+        <v>43899</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45128</v>
       </c>
       <c r="F2" s="2">
         <v>175212.26</v>
       </c>
       <c r="G2" s="1">
-        <f>E2-D2</f>
         <v>1229</v>
       </c>
       <c r="H2" s="1">
@@ -1188,22 +849,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44388</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45257</v>
       </c>
       <c r="F3" s="2">
-        <v>4062390.48</v>
+        <v>406390.48</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G61" si="0">E3-D3</f>
         <v>869</v>
       </c>
       <c r="H3" s="1">
@@ -1224,23 +884,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43975</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44665</v>
       </c>
       <c r="F4" s="2">
-        <v>7532140.8799999999</v>
+        <v>753140.88</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>1421</v>
+        <v>690</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1260,23 +919,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44283</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44420</v>
       </c>
       <c r="F5" s="2">
-        <v>4373322.76</v>
+        <v>437322.76</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>502</v>
+        <v>137</v>
       </c>
       <c r="H5" s="1">
         <v>9</v>
@@ -1296,22 +954,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43934</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44766</v>
       </c>
       <c r="F6" s="2">
         <v>659775.46</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
         <v>832</v>
       </c>
       <c r="H6" s="1">
@@ -1332,22 +989,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43909</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44926</v>
       </c>
       <c r="F7" s="2">
-        <v>3375871.15</v>
+        <v>375871.15</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
         <v>1017</v>
       </c>
       <c r="H7" s="1">
@@ -1368,22 +1024,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44134</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45362</v>
       </c>
       <c r="F8" s="2">
-        <v>4699213.8499999996</v>
+        <v>469213.85</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
         <v>1228</v>
       </c>
       <c r="H8" s="1">
@@ -1404,22 +1059,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43691</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45023</v>
       </c>
       <c r="F9" s="2">
-        <v>1739087.94</v>
+        <v>179087.94</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
         <v>1332</v>
       </c>
       <c r="H9" s="1">
@@ -1440,22 +1094,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43783</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45127</v>
       </c>
       <c r="F10" s="2">
-        <v>5994093.7699999996</v>
+        <v>594093.77</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
         <v>1344</v>
       </c>
       <c r="H10" s="1">
@@ -1476,23 +1129,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43807</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45110</v>
       </c>
       <c r="F11" s="2">
-        <v>1403256.55</v>
+        <v>143256.54999999999</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>1669</v>
+        <v>1303</v>
       </c>
       <c r="H11" s="1">
         <v>6</v>
@@ -1512,22 +1164,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43969</v>
+      </c>
+      <c r="E12" s="4">
+        <v>44727</v>
       </c>
       <c r="F12" s="2">
-        <v>6109037.3899999997</v>
+        <v>610937.39</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
         <v>758</v>
       </c>
       <c r="H12" s="1">
@@ -1548,22 +1199,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44403</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44878</v>
       </c>
       <c r="F13" s="2">
-        <v>9934294.3499999996</v>
+        <v>993424.35</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
         <v>475</v>
       </c>
       <c r="H13" s="1">
@@ -1584,22 +1234,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45413</v>
       </c>
       <c r="F14" s="2">
-        <v>7507056.75</v>
+        <v>707056.75</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
         <v>983</v>
       </c>
       <c r="H14" s="1">
@@ -1620,22 +1269,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44525</v>
+      </c>
+      <c r="E15" s="4">
+        <v>45739</v>
       </c>
       <c r="F15" s="2">
-        <v>7148206.5499999998</v>
+        <v>718206.55</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
         <v>1214</v>
       </c>
       <c r="H15" s="1">
@@ -1656,22 +1304,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44444</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44959</v>
       </c>
       <c r="F16" s="2">
         <v>952130.31</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="H16" s="1">
@@ -1692,22 +1339,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43873</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45002</v>
       </c>
       <c r="F17" s="2">
-        <v>9949406.8000000007</v>
+        <v>994946.8</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
         <v>1129</v>
       </c>
       <c r="H17" s="1">
@@ -1728,23 +1374,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43746</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44342</v>
       </c>
       <c r="F18" s="2">
         <v>508597.7</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>1692</v>
+        <v>596</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1764,22 +1409,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45349</v>
       </c>
       <c r="F19" s="2">
-        <v>1755187.59</v>
+        <v>175187.59</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
         <v>926</v>
       </c>
       <c r="H19" s="1">
@@ -1800,22 +1444,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44514</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45402</v>
       </c>
       <c r="F20" s="2">
-        <v>6045769.0999999996</v>
+        <v>645769.1</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
         <v>888</v>
       </c>
       <c r="H20" s="1">
@@ -1836,23 +1479,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44094</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45258</v>
       </c>
       <c r="F21" s="2">
-        <v>5385658.6500000004</v>
+        <v>585658.65</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>1530</v>
+        <v>1164</v>
       </c>
       <c r="H21" s="1">
         <v>5</v>
@@ -1872,22 +1514,21 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44219</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45064</v>
       </c>
       <c r="F22" s="2">
-        <v>6467809.8499999996</v>
+        <v>646809.85</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
         <v>845</v>
       </c>
       <c r="H22" s="1">
@@ -1908,22 +1549,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44354</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45156</v>
       </c>
       <c r="F23" s="2">
-        <v>1858605.82</v>
+        <v>185605.82</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
         <v>802</v>
       </c>
       <c r="H23" s="1">
@@ -1944,22 +1584,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44699</v>
+      </c>
+      <c r="E24" s="4">
+        <v>45410</v>
       </c>
       <c r="F24" s="2">
-        <v>5675458.0899999999</v>
+        <v>565458.09</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
         <v>711</v>
       </c>
       <c r="H24" s="1">
@@ -1980,22 +1619,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44328</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45583</v>
       </c>
       <c r="F25" s="2">
         <v>377363.08</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
         <v>1255</v>
       </c>
       <c r="H25" s="1">
@@ -2016,22 +1654,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44205</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45117</v>
       </c>
       <c r="F26" s="2">
-        <v>8158935.0199999996</v>
+        <v>815935.02</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
         <v>912</v>
       </c>
       <c r="H26" s="1">
@@ -2052,22 +1689,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44357</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45337</v>
       </c>
       <c r="F27" s="2">
-        <v>8344861.9699999997</v>
+        <v>834861.97</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
         <v>980</v>
       </c>
       <c r="H27" s="1">
@@ -2088,22 +1724,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44217</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45580</v>
       </c>
       <c r="F28" s="2">
-        <v>7350961.0099999998</v>
+        <v>730961.01</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
         <v>1363</v>
       </c>
       <c r="H28" s="1">
@@ -2124,22 +1759,21 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44539</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45629</v>
       </c>
       <c r="F29" s="2">
-        <v>6135346.3700000001</v>
+        <v>613546.37</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
         <v>1090</v>
       </c>
       <c r="H29" s="1">
@@ -2160,22 +1794,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44211</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45288</v>
       </c>
       <c r="F30" s="2">
-        <v>3659787.15</v>
+        <v>369787.15</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
         <v>1077</v>
       </c>
       <c r="H30" s="1">
@@ -2196,23 +1829,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43704</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44413</v>
       </c>
       <c r="F31" s="2">
-        <v>6997174.5700000003</v>
+        <v>699174.57</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>1439</v>
+        <v>709</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -2232,22 +1864,21 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44268</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44734</v>
       </c>
       <c r="F32" s="2">
-        <v>2120109.44</v>
+        <v>212009.44</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
         <v>466</v>
       </c>
       <c r="H32" s="1">
@@ -2268,22 +1899,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44201</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44767</v>
       </c>
       <c r="F33" s="2">
-        <v>4064359.02</v>
+        <v>406459.02</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
         <v>566</v>
       </c>
       <c r="H33" s="1">
@@ -2304,22 +1934,21 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44412</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45722</v>
       </c>
       <c r="F34" s="2">
-        <v>4483539.62</v>
+        <v>483539.62</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
         <v>1310</v>
       </c>
       <c r="H34" s="1">
@@ -2340,22 +1969,21 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44629</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45446</v>
       </c>
       <c r="F35" s="2">
-        <v>7604352.6500000004</v>
+        <v>760452.65</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
         <v>817</v>
       </c>
       <c r="H35" s="1">
@@ -2376,22 +2004,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43768</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44870</v>
       </c>
       <c r="F36" s="2">
-        <v>7078462.25</v>
+        <v>707462.25</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
         <v>1102</v>
       </c>
       <c r="H36" s="1">
@@ -2412,22 +2039,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>141</v>
+      <c r="D37" s="4">
+        <v>44560</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44811</v>
       </c>
       <c r="F37" s="2">
         <v>266865.32</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="H37" s="1">
@@ -2448,22 +2074,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>145</v>
+        <v>71</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44143</v>
+      </c>
+      <c r="E38" s="4">
+        <v>44962</v>
       </c>
       <c r="F38" s="2">
-        <v>7857647.9299999997</v>
+        <v>785747.93</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
         <v>819</v>
       </c>
       <c r="H38" s="1">
@@ -2484,22 +2109,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44612</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45545</v>
       </c>
       <c r="F39" s="2">
-        <v>1865076.64</v>
+        <v>186576.64000000001</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
         <v>933</v>
       </c>
       <c r="H39" s="1">
@@ -2520,23 +2144,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
+        <v>74</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44227</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45417</v>
       </c>
       <c r="F40" s="2">
-        <v>6376283.0499999998</v>
+        <v>636283.05000000005</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>1555</v>
+        <v>1190</v>
       </c>
       <c r="H40" s="1">
         <v>19</v>
@@ -2556,22 +2179,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44318</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44870</v>
       </c>
       <c r="F41" s="2">
         <v>242537.67</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
         <v>552</v>
       </c>
       <c r="H41" s="1">
@@ -2592,22 +2214,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>158</v>
+        <v>77</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44242</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44923</v>
       </c>
       <c r="F42" s="2">
-        <v>3327861.13</v>
+        <v>332861.13</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="H42" s="1">
@@ -2628,22 +2249,21 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44179</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45310</v>
       </c>
       <c r="F43" s="2">
-        <v>9830042.7599999998</v>
+        <v>983042.76</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
         <v>1131</v>
       </c>
       <c r="H43" s="1">
@@ -2664,22 +2284,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>166</v>
+        <v>81</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43926</v>
+      </c>
+      <c r="E44" s="4">
+        <v>44765</v>
       </c>
       <c r="F44" s="2">
-        <v>7337552.5</v>
+        <v>737552.5</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
         <v>839</v>
       </c>
       <c r="H44" s="1">
@@ -2700,23 +2319,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>169</v>
+        <v>82</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43719</v>
+      </c>
+      <c r="E45" s="4">
+        <v>44489</v>
       </c>
       <c r="F45" s="2">
-        <v>5165130.37</v>
+        <v>516530.37</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>1866</v>
+        <v>770</v>
       </c>
       <c r="H45" s="1">
         <v>20</v>
@@ -2736,23 +2354,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>84</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44181</v>
+      </c>
+      <c r="E46" s="4">
+        <v>44929</v>
       </c>
       <c r="F46" s="2">
-        <v>6295671.1399999997</v>
+        <v>629571.14</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>1479</v>
+        <v>748</v>
       </c>
       <c r="H46" s="1">
         <v>7</v>
@@ -2772,22 +2389,21 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>177</v>
+        <v>86</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44502</v>
+      </c>
+      <c r="E47" s="4">
+        <v>44759</v>
       </c>
       <c r="F47" s="2">
-        <v>5669443.6299999999</v>
+        <v>569443.63</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="H47" s="1">
@@ -2808,22 +2424,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>180</v>
+        <v>87</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44370</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45643</v>
       </c>
       <c r="F48" s="2">
-        <v>8590414.2400000002</v>
+        <v>859414.24</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
         <v>1273</v>
       </c>
       <c r="H48" s="1">
@@ -2844,22 +2459,21 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>89</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44566</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45709</v>
       </c>
       <c r="F49" s="2">
-        <v>8763937.6500000004</v>
+        <v>876937.65</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
         <v>1143</v>
       </c>
       <c r="H49" s="1">
@@ -2880,22 +2494,21 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>187</v>
+        <v>90</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43947</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45363</v>
       </c>
       <c r="F50" s="2">
-        <v>5066214.53</v>
+        <v>506214.53</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
         <v>1416</v>
       </c>
       <c r="H50" s="1">
@@ -2916,23 +2529,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>191</v>
+        <v>92</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43959</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44698</v>
       </c>
       <c r="F51" s="2">
-        <v>7115326.3899999997</v>
+        <v>715326.39</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>1623</v>
+        <v>739</v>
       </c>
       <c r="H51" s="1">
         <v>2</v>
@@ -2952,22 +2564,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>195</v>
+        <v>94</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44250</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45318</v>
       </c>
       <c r="F52" s="2">
-        <v>1897002.07</v>
+        <v>189702.07</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
         <v>1068</v>
       </c>
       <c r="H52" s="1">
@@ -2988,22 +2599,21 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>199</v>
+        <v>96</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44584</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45458</v>
       </c>
       <c r="F53" s="2">
-        <v>2290535.29</v>
+        <v>229035.29</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
         <v>874</v>
       </c>
       <c r="H53" s="1">
@@ -3024,23 +2634,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>203</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44285</v>
+      </c>
+      <c r="E54" s="4">
+        <v>45012</v>
       </c>
       <c r="F54" s="2">
-        <v>9717657.3100000005</v>
+        <v>971767.31</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>1458</v>
+        <v>727</v>
       </c>
       <c r="H54" s="1">
         <v>11</v>
@@ -3060,22 +2669,21 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>205</v>
+        <v>99</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43926</v>
+      </c>
+      <c r="E55" s="4">
+        <v>44796</v>
       </c>
       <c r="F55" s="2">
-        <v>9627105.8200000003</v>
+        <v>927105.82</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="H55" s="1">
@@ -3096,22 +2704,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>209</v>
+        <v>101</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43810</v>
+      </c>
+      <c r="E56" s="4">
+        <v>44810</v>
       </c>
       <c r="F56" s="2">
-        <v>4240546.16</v>
+        <v>424046.16</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H56" s="1">
@@ -3132,23 +2739,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>158</v>
+        <v>102</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43824</v>
+      </c>
+      <c r="E57" s="4">
+        <v>44193</v>
       </c>
       <c r="F57" s="2">
-        <v>4747308.1100000003</v>
+        <v>447308.11</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>1099</v>
+        <v>369</v>
       </c>
       <c r="H57" s="1">
         <v>17</v>
@@ -3168,23 +2774,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44229</v>
+      </c>
+      <c r="E58" s="4">
+        <v>44569</v>
       </c>
       <c r="F58" s="2">
-        <v>2470623.61</v>
+        <v>247623.61</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>1314</v>
+        <v>340</v>
       </c>
       <c r="H58" s="1">
         <v>17</v>
@@ -3204,22 +2809,21 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>218</v>
+        <v>105</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44172</v>
+      </c>
+      <c r="E59" s="4">
+        <v>45107</v>
       </c>
       <c r="F59" s="2">
-        <v>1398107.69</v>
+        <v>138107.69</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
         <v>935</v>
       </c>
       <c r="H59" s="1">
@@ -3240,23 +2844,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>222</v>
+        <v>107</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43763</v>
+      </c>
+      <c r="E60" s="4">
+        <v>44305</v>
       </c>
       <c r="F60" s="2">
-        <v>2997505.68</v>
+        <v>299705.68</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>1638</v>
+        <v>542</v>
       </c>
       <c r="H60" s="1">
         <v>5</v>
@@ -3276,23 +2879,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>225</v>
+        <v>108</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44135</v>
+      </c>
+      <c r="E61" s="4">
+        <v>44654</v>
       </c>
       <c r="F61" s="2">
-        <v>3977895.44</v>
+        <v>397895.44</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>1615</v>
+        <v>519</v>
       </c>
       <c r="H61" s="1">
         <v>4</v>

--- a/Mock_Data/Projects.xlsx
+++ b/Mock_Data/Projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A0E55F-DC3F-4A0E-BF3D-03F53D11FA53}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAAF9F0-9C31-4CB2-BA3D-DFC9B9CABFC6}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1425" windowWidth="33645" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="765" windowWidth="12210" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -758,14 +758,14 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="154.875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="154.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="14.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="10" width="14" style="1" customWidth="1"/>
@@ -2910,6 +2910,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
+    <sortCondition ref="A4:A62"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Mock_Data/Projects.xlsx
+++ b/Mock_Data/Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAAF9F0-9C31-4CB2-BA3D-DFC9B9CABFC6}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF21E209-A9AE-497F-97E7-8943D1284373}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="765" windowWidth="12210" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="660" windowWidth="24195" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -758,17 +758,18 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="154.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="10" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="154.875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
     <col min="12" max="14" width="14" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -811,1227 +812,1227 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44217</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45580</v>
+      </c>
+      <c r="F2" s="2">
+        <v>730961.01</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1363</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>43899</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45128</v>
-      </c>
-      <c r="F2" s="2">
-        <v>175212.26</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1229</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
       <c r="K2" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>44388</v>
+        <v>44134</v>
       </c>
       <c r="E3" s="4">
-        <v>45257</v>
+        <v>45362</v>
       </c>
       <c r="F3" s="2">
-        <v>406390.48</v>
+        <v>469213.85</v>
       </c>
       <c r="G3" s="1">
-        <v>869</v>
+        <v>1228</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4">
-        <v>43975</v>
+        <v>44370</v>
       </c>
       <c r="E4" s="4">
-        <v>44665</v>
+        <v>45643</v>
       </c>
       <c r="F4" s="2">
-        <v>753140.88</v>
+        <v>859414.24</v>
       </c>
       <c r="G4" s="1">
-        <v>690</v>
+        <v>1273</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4">
-        <v>44283</v>
+        <v>43704</v>
       </c>
       <c r="E5" s="4">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="F5" s="2">
-        <v>437322.76</v>
+        <v>699174.57</v>
       </c>
       <c r="G5" s="1">
-        <v>137</v>
+        <v>709</v>
       </c>
       <c r="H5" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44094</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45258</v>
+      </c>
+      <c r="F6" s="2">
+        <v>585658.65</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1164</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43934</v>
-      </c>
-      <c r="E6" s="4">
-        <v>44766</v>
-      </c>
-      <c r="F6" s="2">
-        <v>659775.46</v>
-      </c>
-      <c r="G6" s="1">
-        <v>832</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
       <c r="I6" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
-        <v>43909</v>
+        <v>43783</v>
       </c>
       <c r="E7" s="4">
-        <v>44926</v>
+        <v>45127</v>
       </c>
       <c r="F7" s="2">
-        <v>375871.15</v>
+        <v>594093.77</v>
       </c>
       <c r="G7" s="1">
-        <v>1017</v>
+        <v>1344</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44354</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45156</v>
+      </c>
+      <c r="F8" s="2">
+        <v>185605.82</v>
+      </c>
+      <c r="G8" s="1">
+        <v>802</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
-        <v>44134</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45362</v>
-      </c>
-      <c r="F8" s="2">
-        <v>469213.85</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1228</v>
-      </c>
-      <c r="H8" s="1">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3">
-        <v>23</v>
-      </c>
       <c r="K8" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44318</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44870</v>
+      </c>
+      <c r="F9" s="2">
+        <v>242537.67</v>
+      </c>
+      <c r="G9" s="1">
+        <v>552</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>32</v>
+      </c>
+      <c r="K9" s="3">
         <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43691</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45023</v>
-      </c>
-      <c r="F9" s="2">
-        <v>179087.94</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1332</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44219</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45064</v>
+      </c>
+      <c r="F10" s="2">
+        <v>646809.85</v>
+      </c>
+      <c r="G10" s="1">
+        <v>845</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40</v>
+      </c>
+      <c r="K10" s="3">
         <v>23</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43783</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45127</v>
-      </c>
-      <c r="F10" s="2">
-        <v>594093.77</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1344</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3">
-        <v>33</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4">
-        <v>43807</v>
+        <v>43768</v>
       </c>
       <c r="E11" s="4">
-        <v>45110</v>
+        <v>44870</v>
       </c>
       <c r="F11" s="2">
-        <v>143256.54999999999</v>
+        <v>707462.25</v>
       </c>
       <c r="G11" s="1">
-        <v>1303</v>
+        <v>1102</v>
       </c>
       <c r="H11" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K11" s="3">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4">
-        <v>43969</v>
+        <v>44179</v>
       </c>
       <c r="E12" s="4">
-        <v>44727</v>
+        <v>45310</v>
       </c>
       <c r="F12" s="2">
-        <v>610937.39</v>
+        <v>983042.76</v>
       </c>
       <c r="G12" s="1">
-        <v>758</v>
+        <v>1131</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3">
-        <v>106</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4">
-        <v>44403</v>
+        <v>43899</v>
       </c>
       <c r="E13" s="4">
-        <v>44878</v>
+        <v>45128</v>
       </c>
       <c r="F13" s="2">
-        <v>993424.35</v>
+        <v>175212.26</v>
       </c>
       <c r="G13" s="1">
-        <v>475</v>
+        <v>1229</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J13" s="3">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4">
-        <v>44430</v>
+        <v>44211</v>
       </c>
       <c r="E14" s="4">
-        <v>45413</v>
+        <v>45288</v>
       </c>
       <c r="F14" s="2">
-        <v>707056.75</v>
+        <v>369787.15</v>
       </c>
       <c r="G14" s="1">
-        <v>983</v>
+        <v>1077</v>
       </c>
       <c r="H14" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K14" s="3">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4">
-        <v>44525</v>
+        <v>44699</v>
       </c>
       <c r="E15" s="4">
-        <v>45739</v>
+        <v>45410</v>
       </c>
       <c r="F15" s="2">
-        <v>718206.55</v>
+        <v>565458.09</v>
       </c>
       <c r="G15" s="1">
-        <v>1214</v>
+        <v>711</v>
       </c>
       <c r="H15" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I15" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4">
-        <v>44444</v>
+        <v>44539</v>
       </c>
       <c r="E16" s="4">
-        <v>44959</v>
+        <v>45629</v>
       </c>
       <c r="F16" s="2">
-        <v>952130.31</v>
+        <v>613546.37</v>
       </c>
       <c r="G16" s="1">
-        <v>515</v>
+        <v>1090</v>
       </c>
       <c r="H16" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K16" s="3">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44514</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45402</v>
+      </c>
+      <c r="F17" s="2">
+        <v>645769.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>888</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43873</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45002</v>
-      </c>
-      <c r="F17" s="2">
-        <v>994946.8</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1129</v>
-      </c>
-      <c r="H17" s="1">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
       <c r="K17" s="3">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D18" s="4">
-        <v>43746</v>
+        <v>44242</v>
       </c>
       <c r="E18" s="4">
-        <v>44342</v>
+        <v>44923</v>
       </c>
       <c r="F18" s="2">
-        <v>508597.7</v>
+        <v>332861.13</v>
       </c>
       <c r="G18" s="1">
-        <v>596</v>
+        <v>681</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K18" s="3">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43824</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44193</v>
+      </c>
+      <c r="F19" s="2">
+        <v>447308.11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>369</v>
+      </c>
+      <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4">
-        <v>44423</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45349</v>
-      </c>
-      <c r="F19" s="2">
-        <v>175187.59</v>
-      </c>
-      <c r="G19" s="1">
-        <v>926</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>20</v>
-      </c>
-      <c r="J19" s="3">
-        <v>16</v>
-      </c>
       <c r="K19" s="3">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4">
-        <v>44514</v>
+        <v>44525</v>
       </c>
       <c r="E20" s="4">
-        <v>45402</v>
+        <v>45739</v>
       </c>
       <c r="F20" s="2">
-        <v>645769.1</v>
+        <v>718206.55</v>
       </c>
       <c r="G20" s="1">
-        <v>888</v>
+        <v>1214</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J20" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="K20" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43719</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44489</v>
+      </c>
+      <c r="F21" s="2">
+        <v>516530.37</v>
+      </c>
+      <c r="G21" s="1">
+        <v>770</v>
+      </c>
+      <c r="H21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4">
-        <v>44094</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45258</v>
-      </c>
-      <c r="F21" s="2">
-        <v>585658.65</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1164</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
       <c r="I21" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K21" s="3">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4">
-        <v>44219</v>
+        <v>44143</v>
       </c>
       <c r="E22" s="4">
-        <v>45064</v>
+        <v>44962</v>
       </c>
       <c r="F22" s="2">
-        <v>646809.85</v>
+        <v>785747.93</v>
       </c>
       <c r="G22" s="1">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="H22" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
         <v>13</v>
       </c>
-      <c r="I22" s="3">
-        <v>25</v>
-      </c>
       <c r="J22" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K22" s="3">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4">
-        <v>44354</v>
+        <v>44444</v>
       </c>
       <c r="E23" s="4">
-        <v>45156</v>
+        <v>44959</v>
       </c>
       <c r="F23" s="2">
-        <v>185605.82</v>
+        <v>952130.31</v>
       </c>
       <c r="G23" s="1">
-        <v>802</v>
+        <v>515</v>
       </c>
       <c r="H23" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
-        <v>44699</v>
+        <v>43746</v>
       </c>
       <c r="E24" s="4">
-        <v>45410</v>
+        <v>44342</v>
       </c>
       <c r="F24" s="2">
-        <v>565458.09</v>
+        <v>508597.7</v>
       </c>
       <c r="G24" s="1">
-        <v>711</v>
+        <v>596</v>
       </c>
       <c r="H24" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K24" s="3">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
-        <v>44328</v>
+        <v>43934</v>
       </c>
       <c r="E25" s="4">
-        <v>45583</v>
+        <v>44766</v>
       </c>
       <c r="F25" s="2">
-        <v>377363.08</v>
+        <v>659775.46</v>
       </c>
       <c r="G25" s="1">
-        <v>1255</v>
+        <v>832</v>
       </c>
       <c r="H25" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3">
         <v>24</v>
       </c>
       <c r="J25" s="3">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K25" s="3">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4">
-        <v>44205</v>
+        <v>44412</v>
       </c>
       <c r="E26" s="4">
-        <v>45117</v>
+        <v>45722</v>
       </c>
       <c r="F26" s="2">
-        <v>815935.02</v>
+        <v>483539.62</v>
       </c>
       <c r="G26" s="1">
-        <v>912</v>
+        <v>1310</v>
       </c>
       <c r="H26" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I26" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J26" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K26" s="3">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4">
-        <v>44357</v>
+        <v>44388</v>
       </c>
       <c r="E27" s="4">
-        <v>45337</v>
+        <v>45257</v>
       </c>
       <c r="F27" s="2">
-        <v>834861.97</v>
+        <v>406390.48</v>
       </c>
       <c r="G27" s="1">
-        <v>980</v>
+        <v>869</v>
       </c>
       <c r="H27" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J27" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4">
-        <v>44217</v>
+        <v>43959</v>
       </c>
       <c r="E28" s="4">
-        <v>45580</v>
+        <v>44698</v>
       </c>
       <c r="F28" s="2">
-        <v>730961.01</v>
+        <v>715326.39</v>
       </c>
       <c r="G28" s="1">
-        <v>1363</v>
+        <v>739</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
       </c>
       <c r="I28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4">
-        <v>44539</v>
+        <v>44584</v>
       </c>
       <c r="E29" s="4">
-        <v>45629</v>
+        <v>45458</v>
       </c>
       <c r="F29" s="2">
-        <v>613546.37</v>
+        <v>229035.29</v>
       </c>
       <c r="G29" s="1">
-        <v>1090</v>
+        <v>874</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="J29" s="3">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K29" s="3">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4">
-        <v>44211</v>
+        <v>43691</v>
       </c>
       <c r="E30" s="4">
-        <v>45288</v>
+        <v>45023</v>
       </c>
       <c r="F30" s="2">
-        <v>369787.15</v>
+        <v>179087.94</v>
       </c>
       <c r="G30" s="1">
-        <v>1077</v>
+        <v>1332</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J30" s="3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4">
-        <v>43704</v>
+        <v>43926</v>
       </c>
       <c r="E31" s="4">
-        <v>44413</v>
+        <v>44765</v>
       </c>
       <c r="F31" s="2">
-        <v>699174.57</v>
+        <v>737552.5</v>
       </c>
       <c r="G31" s="1">
-        <v>709</v>
+        <v>839</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I31" s="3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="K31" s="3">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4">
-        <v>44268</v>
+        <v>44283</v>
       </c>
       <c r="E32" s="4">
-        <v>44734</v>
+        <v>44420</v>
       </c>
       <c r="F32" s="2">
-        <v>212009.44</v>
+        <v>437322.76</v>
       </c>
       <c r="G32" s="1">
-        <v>466</v>
+        <v>137</v>
       </c>
       <c r="H32" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J32" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K32" s="3">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D33" s="4">
-        <v>44201</v>
+        <v>44328</v>
       </c>
       <c r="E33" s="4">
-        <v>44767</v>
+        <v>45583</v>
       </c>
       <c r="F33" s="2">
-        <v>406459.02</v>
+        <v>377363.08</v>
       </c>
       <c r="G33" s="1">
-        <v>566</v>
+        <v>1255</v>
       </c>
       <c r="H33" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J33" s="3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K33" s="3">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D34" s="4">
-        <v>44412</v>
+        <v>44205</v>
       </c>
       <c r="E34" s="4">
-        <v>45722</v>
+        <v>45117</v>
       </c>
       <c r="F34" s="2">
-        <v>483539.62</v>
+        <v>815935.02</v>
       </c>
       <c r="G34" s="1">
-        <v>1310</v>
+        <v>912</v>
       </c>
       <c r="H34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J34" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D35" s="4">
-        <v>44629</v>
+        <v>44227</v>
       </c>
       <c r="E35" s="4">
-        <v>45446</v>
+        <v>45417</v>
       </c>
       <c r="F35" s="2">
-        <v>760452.65</v>
+        <v>636283.05000000005</v>
       </c>
       <c r="G35" s="1">
-        <v>817</v>
+        <v>1190</v>
       </c>
       <c r="H35" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J35" s="3">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K35" s="3">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4">
-        <v>43768</v>
+        <v>44403</v>
       </c>
       <c r="E36" s="4">
-        <v>44870</v>
+        <v>44878</v>
       </c>
       <c r="F36" s="2">
-        <v>707462.25</v>
+        <v>993424.35</v>
       </c>
       <c r="G36" s="1">
-        <v>1102</v>
+        <v>475</v>
       </c>
       <c r="H36" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I36" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J36" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K36" s="3">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2071,847 +2072,847 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D38" s="4">
-        <v>44143</v>
+        <v>44502</v>
       </c>
       <c r="E38" s="4">
-        <v>44962</v>
+        <v>44759</v>
       </c>
       <c r="F38" s="2">
-        <v>785747.93</v>
+        <v>569443.63</v>
       </c>
       <c r="G38" s="1">
-        <v>819</v>
+        <v>257</v>
       </c>
       <c r="H38" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I38" s="3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J38" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K38" s="3">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4">
-        <v>44612</v>
+        <v>44357</v>
       </c>
       <c r="E39" s="4">
-        <v>45545</v>
+        <v>45337</v>
       </c>
       <c r="F39" s="2">
-        <v>186576.64000000001</v>
+        <v>834861.97</v>
       </c>
       <c r="G39" s="1">
-        <v>933</v>
+        <v>980</v>
       </c>
       <c r="H39" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I39" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J39" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D40" s="4">
-        <v>44227</v>
+        <v>43975</v>
       </c>
       <c r="E40" s="4">
-        <v>45417</v>
+        <v>44665</v>
       </c>
       <c r="F40" s="2">
-        <v>636283.05000000005</v>
+        <v>753140.88</v>
       </c>
       <c r="G40" s="1">
-        <v>1190</v>
+        <v>690</v>
       </c>
       <c r="H40" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I40" s="3">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J40" s="3">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K40" s="3">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4">
-        <v>44318</v>
+        <v>43807</v>
       </c>
       <c r="E41" s="4">
-        <v>44870</v>
+        <v>45110</v>
       </c>
       <c r="F41" s="2">
-        <v>242537.67</v>
+        <v>143256.54999999999</v>
       </c>
       <c r="G41" s="1">
-        <v>552</v>
+        <v>1303</v>
       </c>
       <c r="H41" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I41" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J41" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K41" s="3">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D42" s="4">
-        <v>44242</v>
+        <v>43810</v>
       </c>
       <c r="E42" s="4">
-        <v>44923</v>
+        <v>44810</v>
       </c>
       <c r="F42" s="2">
-        <v>332861.13</v>
+        <v>424046.16</v>
       </c>
       <c r="G42" s="1">
-        <v>681</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="3">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J42" s="3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K42" s="3">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D43" s="4">
-        <v>44179</v>
+        <v>44229</v>
       </c>
       <c r="E43" s="4">
-        <v>45310</v>
+        <v>44569</v>
       </c>
       <c r="F43" s="2">
-        <v>983042.76</v>
+        <v>247623.61</v>
       </c>
       <c r="G43" s="1">
-        <v>1131</v>
+        <v>340</v>
       </c>
       <c r="H43" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I43" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J43" s="3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K43" s="3">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D44" s="4">
-        <v>43926</v>
+        <v>44285</v>
       </c>
       <c r="E44" s="4">
-        <v>44765</v>
+        <v>45012</v>
       </c>
       <c r="F44" s="2">
-        <v>737552.5</v>
+        <v>971767.31</v>
       </c>
       <c r="G44" s="1">
-        <v>839</v>
+        <v>727</v>
       </c>
       <c r="H44" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J44" s="3">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K44" s="3">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D45" s="4">
-        <v>43719</v>
+        <v>44172</v>
       </c>
       <c r="E45" s="4">
-        <v>44489</v>
+        <v>45107</v>
       </c>
       <c r="F45" s="2">
-        <v>516530.37</v>
+        <v>138107.69</v>
       </c>
       <c r="G45" s="1">
-        <v>770</v>
+        <v>935</v>
       </c>
       <c r="H45" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J45" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K45" s="3">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D46" s="4">
-        <v>44181</v>
+        <v>43909</v>
       </c>
       <c r="E46" s="4">
-        <v>44929</v>
+        <v>44926</v>
       </c>
       <c r="F46" s="2">
-        <v>629571.14</v>
+        <v>375871.15</v>
       </c>
       <c r="G46" s="1">
-        <v>748</v>
+        <v>1017</v>
       </c>
       <c r="H46" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I46" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K46" s="3">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
-        <v>44502</v>
+        <v>44268</v>
       </c>
       <c r="E47" s="4">
-        <v>44759</v>
+        <v>44734</v>
       </c>
       <c r="F47" s="2">
-        <v>569443.63</v>
+        <v>212009.44</v>
       </c>
       <c r="G47" s="1">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="H47" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I47" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J47" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K47" s="3">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" s="4">
-        <v>44370</v>
+        <v>44566</v>
       </c>
       <c r="E48" s="4">
-        <v>45643</v>
+        <v>45709</v>
       </c>
       <c r="F48" s="2">
-        <v>859414.24</v>
+        <v>876937.65</v>
       </c>
       <c r="G48" s="1">
-        <v>1273</v>
+        <v>1143</v>
       </c>
       <c r="H48" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J48" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K48" s="3">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4">
-        <v>44566</v>
+        <v>43969</v>
       </c>
       <c r="E49" s="4">
-        <v>45709</v>
+        <v>44727</v>
       </c>
       <c r="F49" s="2">
-        <v>876937.65</v>
+        <v>610937.39</v>
       </c>
       <c r="G49" s="1">
-        <v>1143</v>
+        <v>758</v>
       </c>
       <c r="H49" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I49" s="3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J49" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K49" s="3">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D50" s="4">
-        <v>43947</v>
+        <v>43926</v>
       </c>
       <c r="E50" s="4">
-        <v>45363</v>
+        <v>44796</v>
       </c>
       <c r="F50" s="2">
-        <v>506214.53</v>
+        <v>927105.82</v>
       </c>
       <c r="G50" s="1">
-        <v>1416</v>
+        <v>870</v>
       </c>
       <c r="H50" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J50" s="3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K50" s="3">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D51" s="4">
-        <v>43959</v>
+        <v>43763</v>
       </c>
       <c r="E51" s="4">
-        <v>44698</v>
+        <v>44305</v>
       </c>
       <c r="F51" s="2">
-        <v>715326.39</v>
+        <v>299705.68</v>
       </c>
       <c r="G51" s="1">
-        <v>739</v>
+        <v>542</v>
       </c>
       <c r="H51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J51" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K51" s="3">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D52" s="4">
-        <v>44250</v>
+        <v>44135</v>
       </c>
       <c r="E52" s="4">
-        <v>45318</v>
+        <v>44654</v>
       </c>
       <c r="F52" s="2">
-        <v>189702.07</v>
+        <v>397895.44</v>
       </c>
       <c r="G52" s="1">
-        <v>1068</v>
+        <v>519</v>
       </c>
       <c r="H52" s="1">
         <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J52" s="3">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K52" s="3">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D53" s="4">
-        <v>44584</v>
+        <v>44629</v>
       </c>
       <c r="E53" s="4">
-        <v>45458</v>
+        <v>45446</v>
       </c>
       <c r="F53" s="2">
-        <v>229035.29</v>
+        <v>760452.65</v>
       </c>
       <c r="G53" s="1">
-        <v>874</v>
+        <v>817</v>
       </c>
       <c r="H53" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I53" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K53" s="3">
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D54" s="4">
-        <v>44285</v>
+        <v>44612</v>
       </c>
       <c r="E54" s="4">
-        <v>45012</v>
+        <v>45545</v>
       </c>
       <c r="F54" s="2">
-        <v>971767.31</v>
+        <v>186576.64000000001</v>
       </c>
       <c r="G54" s="1">
-        <v>727</v>
+        <v>933</v>
       </c>
       <c r="H54" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I54" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J54" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K54" s="3">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D55" s="4">
-        <v>43926</v>
+        <v>43947</v>
       </c>
       <c r="E55" s="4">
-        <v>44796</v>
+        <v>45363</v>
       </c>
       <c r="F55" s="2">
-        <v>927105.82</v>
+        <v>506214.53</v>
       </c>
       <c r="G55" s="1">
-        <v>870</v>
+        <v>1416</v>
       </c>
       <c r="H55" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J55" s="3">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K55" s="3">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D56" s="4">
-        <v>43810</v>
+        <v>44423</v>
       </c>
       <c r="E56" s="4">
-        <v>44810</v>
+        <v>45349</v>
       </c>
       <c r="F56" s="2">
-        <v>424046.16</v>
+        <v>175187.59</v>
       </c>
       <c r="G56" s="1">
-        <v>1000</v>
+        <v>926</v>
       </c>
       <c r="H56" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I56" s="3">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J56" s="3">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K56" s="3">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E57" s="4">
+        <v>45413</v>
+      </c>
+      <c r="F57" s="2">
+        <v>707056.75</v>
+      </c>
+      <c r="G57" s="1">
+        <v>983</v>
+      </c>
+      <c r="H57" s="1">
         <v>12</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="4">
-        <v>43824</v>
-      </c>
-      <c r="E57" s="4">
-        <v>44193</v>
-      </c>
-      <c r="F57" s="2">
-        <v>447308.11</v>
-      </c>
-      <c r="G57" s="1">
-        <v>369</v>
-      </c>
-      <c r="H57" s="1">
-        <v>17</v>
-      </c>
       <c r="I57" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J57" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K57" s="3">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D58" s="4">
-        <v>44229</v>
+        <v>43873</v>
       </c>
       <c r="E58" s="4">
-        <v>44569</v>
+        <v>45002</v>
       </c>
       <c r="F58" s="2">
-        <v>247623.61</v>
+        <v>994946.8</v>
       </c>
       <c r="G58" s="1">
-        <v>340</v>
+        <v>1129</v>
       </c>
       <c r="H58" s="1">
         <v>17</v>
       </c>
       <c r="I58" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J58" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K58" s="3">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4">
-        <v>44172</v>
+        <v>44201</v>
       </c>
       <c r="E59" s="4">
-        <v>45107</v>
+        <v>44767</v>
       </c>
       <c r="F59" s="2">
-        <v>138107.69</v>
+        <v>406459.02</v>
       </c>
       <c r="G59" s="1">
-        <v>935</v>
+        <v>566</v>
       </c>
       <c r="H59" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J59" s="3">
         <v>27</v>
       </c>
       <c r="K59" s="3">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D60" s="4">
-        <v>43763</v>
+        <v>44181</v>
       </c>
       <c r="E60" s="4">
-        <v>44305</v>
+        <v>44929</v>
       </c>
       <c r="F60" s="2">
-        <v>299705.68</v>
+        <v>629571.14</v>
       </c>
       <c r="G60" s="1">
-        <v>542</v>
+        <v>748</v>
       </c>
       <c r="H60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I60" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J60" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K60" s="3">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4">
-        <v>44135</v>
+        <v>44250</v>
       </c>
       <c r="E61" s="4">
-        <v>44654</v>
+        <v>45318</v>
       </c>
       <c r="F61" s="2">
-        <v>397895.44</v>
+        <v>189702.07</v>
       </c>
       <c r="G61" s="1">
-        <v>519</v>
+        <v>1068</v>
       </c>
       <c r="H61" s="1">
         <v>4</v>
       </c>
       <c r="I61" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J61" s="3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="K61" s="3">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
-    <sortCondition ref="A4:A62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
+    <sortCondition ref="K1:K61"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
